--- a/tests/common/damage_to_loss.xlsx
+++ b/tests/common/damage_to_loss.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>POE</t>
   </si>
@@ -29,13 +29,46 @@
   <si>
     <t>LR</t>
   </si>
+  <si>
+    <t>Damage-to-loss-ratio</t>
+  </si>
+  <si>
+    <t>IML</t>
+  </si>
+  <si>
+    <t>FRAGILITY PARAMETERS</t>
+  </si>
+  <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>DS2</t>
+  </si>
+  <si>
+    <t>DS3</t>
+  </si>
+  <si>
+    <t>DS4</t>
+  </si>
+  <si>
+    <t>DS5</t>
+  </si>
+  <si>
+    <t>THETA</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>BETA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -68,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -106,7 +139,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$1:$J$1</c:f>
+              <c:f>Foglio1!$A$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -145,7 +178,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$A$13:$J$13</c:f>
+              <c:f>Foglio1!$A$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -192,7 +225,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$1:$J$1</c:f>
+              <c:f>Foglio1!$A$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -231,7 +264,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$A$14:$J$14</c:f>
+              <c:f>Foglio1!$A$18:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -278,7 +311,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$1:$J$1</c:f>
+              <c:f>Foglio1!$A$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -317,7 +350,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$A$15:$J$15</c:f>
+              <c:f>Foglio1!$A$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -364,7 +397,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$1:$J$1</c:f>
+              <c:f>Foglio1!$A$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -403,7 +436,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$A$16:$J$16</c:f>
+              <c:f>Foglio1!$A$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -450,7 +483,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$1:$J$1</c:f>
+              <c:f>Foglio1!$A$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -489,7 +522,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$A$17:$J$17</c:f>
+              <c:f>Foglio1!$A$21:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -536,11 +569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135587640"/>
-        <c:axId val="2135584472"/>
+        <c:axId val="2094055544"/>
+        <c:axId val="2102793432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135587640"/>
+        <c:axId val="2094055544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,12 +583,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135584472"/>
+        <c:crossAx val="2102793432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135584472"/>
+        <c:axId val="2102793432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,7 +599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135587640"/>
+        <c:crossAx val="2094055544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -594,13 +627,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -945,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -957,592 +990,648 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>0.1</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>0.2</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>0.3</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>0.4</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>0.5</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>0.6</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>0.7</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>0.8</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>0.9</v>
       </c>
-      <c r="J1">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
         <v>0.30359629923905901</v>
       </c>
-      <c r="B3">
+      <c r="C5">
         <v>0.61648687596347096</v>
       </c>
-      <c r="C3">
+      <c r="D5">
         <v>0.90233055223871494</v>
       </c>
-      <c r="D3">
+      <c r="E5">
         <v>1.1590608046681701</v>
       </c>
-      <c r="E3">
+      <c r="F5">
         <v>1.1590608046681701</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <f>LN(A3)</f>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <f>LN(B5)</f>
         <v>-1.1920564231296231</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B4:E4" si="0">LN(B3)</f>
+      <c r="C6">
+        <f t="shared" ref="C6:F6" si="0">LN(C5)</f>
         <v>-0.4837182445792354</v>
       </c>
-      <c r="C4">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>-0.1027743601551597</v>
       </c>
-      <c r="D4">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>0.14761002602562748</v>
       </c>
-      <c r="E4">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>0.14761002602562748</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="C7">
         <v>0.13436510914079999</v>
       </c>
-      <c r="C5">
+      <c r="D7">
         <v>0.22569253428542499</v>
       </c>
-      <c r="D5">
+      <c r="E7">
         <v>0.28024503952191598</v>
       </c>
-      <c r="E5">
+      <c r="F7">
         <v>0.28024503952191598</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="B8">
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <f>IF($A$5&gt;0,LOGNORMDIST(A$1,$A$4,$A$5),IF(A1&lt;$A$3,0,1))</f>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <f>IF($B$7&gt;0,LOGNORMDIST(A$2,$B$6,$B$7),IF(A2&lt;$B$5,0,1))</f>
         <v>0</v>
       </c>
-      <c r="B13">
-        <f>IF($A$5&gt;0,LOGNORMDIST(B$1,$A$4,$A$5),IF(B1&lt;$A$3,0,1))</f>
+      <c r="B17">
+        <f>IF($B$7&gt;0,LOGNORMDIST(B$2,$B$6,$B$7),IF(B2&lt;$B$5,0,1))</f>
         <v>0</v>
       </c>
-      <c r="C13">
-        <f>IF($A$5&gt;0,LOGNORMDIST(C$1,$A$4,$A$5),IF(C1&lt;$A$3,0,1))</f>
+      <c r="C17">
+        <f>IF($B$7&gt;0,LOGNORMDIST(C$2,$B$6,$B$7),IF(C2&lt;$B$5,0,1))</f>
         <v>0</v>
       </c>
-      <c r="D13">
-        <f>IF($A$5&gt;0,LOGNORMDIST(D$1,$A$4,$A$5),IF(D1&lt;$A$3,0,1))</f>
+      <c r="D17">
+        <f>IF($B$7&gt;0,LOGNORMDIST(D$2,$B$6,$B$7),IF(D2&lt;$B$5,0,1))</f>
         <v>1</v>
       </c>
-      <c r="E13">
-        <f>IF($A$5&gt;0,LOGNORMDIST(E$1,$A$4,$A$5),IF(E1&lt;$A$3,0,1))</f>
+      <c r="E17">
+        <f>IF($B$7&gt;0,LOGNORMDIST(E$2,$B$6,$B$7),IF(E2&lt;$B$5,0,1))</f>
         <v>1</v>
       </c>
-      <c r="F13">
-        <f>IF($A$5&gt;0,LOGNORMDIST(F$1,$A$4,$A$5),IF(F1&lt;$A$3,0,1))</f>
+      <c r="F17">
+        <f>IF($B$7&gt;0,LOGNORMDIST(F$2,$B$6,$B$7),IF(F2&lt;$B$5,0,1))</f>
         <v>1</v>
       </c>
-      <c r="G13">
-        <f>IF($A$5&gt;0,LOGNORMDIST(G$1,$A$4,$A$5),IF(G1&lt;$A$3,0,1))</f>
+      <c r="G17">
+        <f>IF($B$7&gt;0,LOGNORMDIST(G$2,$B$6,$B$7),IF(G2&lt;$B$5,0,1))</f>
         <v>1</v>
       </c>
-      <c r="H13">
-        <f>IF($A$5&gt;0,LOGNORMDIST(H$1,$A$4,$A$5),IF(H1&lt;$A$3,0,1))</f>
+      <c r="H17">
+        <f>IF($B$7&gt;0,LOGNORMDIST(H$2,$B$6,$B$7),IF(H2&lt;$B$5,0,1))</f>
         <v>1</v>
       </c>
-      <c r="I13">
-        <f>IF($A$5&gt;0,LOGNORMDIST(I$1,$A$4,$A$5),IF(I1&lt;$A$3,0,1))</f>
+      <c r="I17">
+        <f>IF($B$7&gt;0,LOGNORMDIST(I$2,$B$6,$B$7),IF(I2&lt;$B$5,0,1))</f>
         <v>1</v>
       </c>
-      <c r="J13">
-        <f>IF($A$5&gt;0,LOGNORMDIST(J$1,$A$4,$A$5),IF(J1&lt;$A$3,0,1))</f>
+      <c r="J17">
+        <f>IF($B$7&gt;0,LOGNORMDIST(J$2,$B$6,$B$7),IF(J2&lt;$B$5,0,1))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <f>LOGNORMDIST(A$1,$B$4,$B$5)</f>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <f>LOGNORMDIST(A$2,$C$6,$C$7)</f>
         <v>4.744786890568637E-42</v>
       </c>
-      <c r="B14" s="1">
-        <f t="shared" ref="B14:J14" si="1">LOGNORMDIST(B$1,$B$4,$B$5)</f>
+      <c r="B18" s="1">
+        <f>LOGNORMDIST(B$2,$C$6,$C$7)</f>
         <v>2.6902380454211725E-17</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="1"/>
+      <c r="C18" s="1">
+        <f>LOGNORMDIST(C$2,$C$6,$C$7)</f>
         <v>4.1512392590718621E-8</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
+      <c r="D18" s="1">
+        <f>LOGNORMDIST(D$2,$C$6,$C$7)</f>
         <v>6.4233821724682882E-4</v>
       </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
+      <c r="E18" s="1">
+        <f>LOGNORMDIST(E$2,$C$6,$C$7)</f>
         <v>5.9538952466280555E-2</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
+      <c r="F18" s="1">
+        <f>LOGNORMDIST(F$2,$C$6,$C$7)</f>
         <v>0.42005835977913974</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
+      <c r="G18" s="1">
+        <f>LOGNORMDIST(G$2,$C$6,$C$7)</f>
         <v>0.82780023427765004</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
+      <c r="H18" s="1">
+        <f>LOGNORMDIST(H$2,$C$6,$C$7)</f>
         <v>0.97376778849544254</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
+      <c r="I18" s="1">
+        <f>LOGNORMDIST(I$2,$C$6,$C$7)</f>
         <v>0.99756790447077381</v>
       </c>
-      <c r="J14" s="1">
-        <f t="shared" si="1"/>
+      <c r="J18" s="1">
+        <f>LOGNORMDIST(J$2,$C$6,$C$7)</f>
         <v>0.99984090894954569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <f>LOGNORMDIST(A$1,$C$4,$C$5)</f>
-        <v>9.5059748785164439E-23</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" ref="B15:J15" si="2">LOGNORMDIST(B$1,$C$4,$C$5)</f>
-        <v>1.2299805711132903E-11</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>5.3259185281370154E-7</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5635686675711765E-4</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>4.4505709146515264E-3</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>3.5303539364504748E-2</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13029781914065847</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.29690167463664163</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.49542871810417316</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.67557965934972442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <f>LOGNORMDIST(A$1,$D$4,$D$5)</f>
-        <v>1.1345466959148336E-18</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" ref="B16:J16" si="3">LOGNORMDIST(B$1,$D$4,$D$5)</f>
-        <v>1.8089037042493868E-10</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="3"/>
-        <v>7.0756847831001704E-7</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>7.3428992490975908E-5</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="3"/>
-        <v>1.3495487687728246E-3</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="3"/>
-        <v>9.39932841238709E-3</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>3.5974317723021149E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2923984225862399E-2</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="3"/>
-        <v>0.18334887215141191</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="3"/>
-        <v>0.29919481693416161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <f>LOGNORMDIST(A$1,$E$4,$E$5)</f>
-        <v>1.1345466959148336E-18</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" ref="B17:J17" si="4">LOGNORMDIST(B$1,$E$4,$E$5)</f>
-        <v>1.8089037042493868E-10</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="4"/>
-        <v>7.0756847831001704E-7</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="4"/>
-        <v>7.3428992490975908E-5</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3495487687728246E-3</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="4"/>
-        <v>9.39932841238709E-3</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="4"/>
-        <v>3.5974317723021149E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="4"/>
-        <v>9.2923984225862399E-2</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="4"/>
-        <v>0.18334887215141191</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="4"/>
-        <v>0.29919481693416161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <f>A13-SUM(A14)</f>
-        <v>-4.744786890568637E-42</v>
+        <f>LOGNORMDIST(A$2,$D$6,$D$7)</f>
+        <v>9.5059748785164439E-23</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ref="B19:J19" si="5">B13-SUM(B14)</f>
-        <v>-2.6902380454211725E-17</v>
+        <f>LOGNORMDIST(B$2,$D$6,$D$7)</f>
+        <v>1.2299805711132903E-11</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.1512392590718621E-8</v>
+        <f>LOGNORMDIST(C$2,$D$6,$D$7)</f>
+        <v>5.3259185281370154E-7</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
-        <v>0.9993576617827532</v>
+        <f>LOGNORMDIST(D$2,$D$6,$D$7)</f>
+        <v>1.5635686675711765E-4</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="5"/>
-        <v>0.9404610475337194</v>
+        <f>LOGNORMDIST(E$2,$D$6,$D$7)</f>
+        <v>4.4505709146515264E-3</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="5"/>
-        <v>0.57994164022086026</v>
+        <f>LOGNORMDIST(F$2,$D$6,$D$7)</f>
+        <v>3.5303539364504748E-2</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="5"/>
-        <v>0.17219976572234996</v>
+        <f>LOGNORMDIST(G$2,$D$6,$D$7)</f>
+        <v>0.13029781914065847</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="5"/>
-        <v>2.6232211504557457E-2</v>
+        <f>LOGNORMDIST(H$2,$D$6,$D$7)</f>
+        <v>0.29690167463664163</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="5"/>
-        <v>2.4320955292261859E-3</v>
+        <f>LOGNORMDIST(I$2,$D$6,$D$7)</f>
+        <v>0.49542871810417316</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5909105045430749E-4</v>
+        <f>LOGNORMDIST(J$2,$D$6,$D$7)</f>
+        <v>0.67557965934972442</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <f t="shared" ref="A20:J20" si="6">A14-SUM(A15)</f>
-        <v>-9.5059748785164439E-23</v>
+        <f>LOGNORMDIST(A$2,$E$6,$E$7)</f>
+        <v>1.1345466959148336E-18</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.2299778808752449E-11</v>
+        <f>LOGNORMDIST(B$2,$E$6,$E$7)</f>
+        <v>1.8089037042493868E-10</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
-        <v>-4.9107946022298288E-7</v>
+        <f>LOGNORMDIST(C$2,$E$6,$E$7)</f>
+        <v>7.0756847831001704E-7</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>4.8598135048971117E-4</v>
+        <f>LOGNORMDIST(D$2,$E$6,$E$7)</f>
+        <v>7.3428992490975908E-5</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="6"/>
-        <v>5.5088381551629026E-2</v>
+        <f>LOGNORMDIST(E$2,$E$6,$E$7)</f>
+        <v>1.3495487687728246E-3</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="6"/>
-        <v>0.38475482041463499</v>
+        <f>LOGNORMDIST(F$2,$E$6,$E$7)</f>
+        <v>9.39932841238709E-3</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="6"/>
-        <v>0.69750241513699152</v>
+        <f>LOGNORMDIST(G$2,$E$6,$E$7)</f>
+        <v>3.5974317723021149E-2</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="6"/>
-        <v>0.67686611385880091</v>
+        <f>LOGNORMDIST(H$2,$E$6,$E$7)</f>
+        <v>9.2923984225862399E-2</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="6"/>
-        <v>0.50213918636660071</v>
+        <f>LOGNORMDIST(I$2,$E$6,$E$7)</f>
+        <v>0.18334887215141191</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="6"/>
-        <v>0.32426124959982128</v>
+        <f>LOGNORMDIST(J$2,$E$6,$E$7)</f>
+        <v>0.29919481693416161</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <f t="shared" ref="A21:J21" si="7">A15-SUM(A16)</f>
-        <v>-1.1344516361660485E-18</v>
+        <f>LOGNORMDIST(A$2,$F$6,$F$7)</f>
+        <v>1.1345466959148336E-18</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="7"/>
-        <v>-1.6859056471380579E-10</v>
+        <f>LOGNORMDIST(B$2,$F$6,$F$7)</f>
+        <v>1.8089037042493868E-10</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="7"/>
-        <v>-1.749766254963155E-7</v>
+        <f>LOGNORMDIST(C$2,$F$6,$F$7)</f>
+        <v>7.0756847831001704E-7</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="7"/>
-        <v>8.2927874266141741E-5</v>
+        <f>LOGNORMDIST(D$2,$F$6,$F$7)</f>
+        <v>7.3428992490975908E-5</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="7"/>
-        <v>3.1010221458787016E-3</v>
+        <f>LOGNORMDIST(E$2,$F$6,$F$7)</f>
+        <v>1.3495487687728246E-3</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="7"/>
-        <v>2.5904210952117659E-2</v>
+        <f>LOGNORMDIST(F$2,$F$6,$F$7)</f>
+        <v>9.39932841238709E-3</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="7"/>
-        <v>9.4323501417637318E-2</v>
+        <f>LOGNORMDIST(G$2,$F$6,$F$7)</f>
+        <v>3.5974317723021149E-2</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="7"/>
-        <v>0.20397769041077923</v>
+        <f>LOGNORMDIST(H$2,$F$6,$F$7)</f>
+        <v>9.2923984225862399E-2</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
-        <v>0.31207984595276128</v>
+        <f>LOGNORMDIST(I$2,$F$6,$F$7)</f>
+        <v>0.18334887215141191</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="7"/>
-        <v>0.3763848424155628</v>
+        <f>LOGNORMDIST(J$2,$F$6,$F$7)</f>
+        <v>0.29919481693416161</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <f t="shared" ref="A22:J22" si="8">A16-SUM(A17)</f>
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="A22" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
-        <f t="shared" ref="A23:J23" si="9">A17-SUM(A18)</f>
-        <v>1.1345466959148336E-18</v>
+        <f>A17-SUM(A18)</f>
+        <v>-4.744786890568637E-42</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="9"/>
-        <v>1.8089037042493868E-10</v>
+        <f t="shared" ref="B23:J23" si="1">B17-SUM(B18)</f>
+        <v>-2.6902380454211725E-17</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="9"/>
-        <v>7.0756847831001704E-7</v>
+        <f t="shared" si="1"/>
+        <v>-4.1512392590718621E-8</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="9"/>
-        <v>7.3428992490975908E-5</v>
+        <f t="shared" si="1"/>
+        <v>0.9993576617827532</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="9"/>
-        <v>1.3495487687728246E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.9404610475337194</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="9"/>
-        <v>9.39932841238709E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.57994164022086026</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="9"/>
-        <v>3.5974317723021149E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.17219976572234996</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="9"/>
-        <v>9.2923984225862399E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.6232211504557457E-2</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="9"/>
-        <v>0.18334887215141191</v>
+        <f t="shared" si="1"/>
+        <v>2.4320955292261859E-3</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="9"/>
-        <v>0.29919481693416161</v>
+        <f t="shared" si="1"/>
+        <v>1.5909105045430749E-4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>2</v>
+      <c r="A24" s="1">
+        <f t="shared" ref="A24:J24" si="2">A18-SUM(A19)</f>
+        <v>-9.5059748785164439E-23</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.2299778808752449E-11</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>-4.9107946022298288E-7</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8598135048971117E-4</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5088381551629026E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38475482041463499</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69750241513699152</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67686611385880091</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50213918636660071</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32426124959982128</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
-        <f>A19*$B$7+A20*$B$8+A21*$B$9+$B$10*A22+$B$11*A23</f>
+        <f t="shared" ref="A25:J25" si="3">A19-SUM(A20)</f>
+        <v>-1.1344516361660485E-18</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.6859056471380579E-10</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.749766254963155E-7</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2927874266141741E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1010221458787016E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5904210952117659E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4323501417637318E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20397769041077923</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.31207984595276128</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3763848424155628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <f t="shared" ref="A26:J26" si="4">A20-SUM(A21)</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <f t="shared" ref="A27:J27" si="5">A21-SUM(A22)</f>
+        <v>1.1345466959148336E-18</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8089037042493868E-10</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="5"/>
+        <v>7.0756847831001704E-7</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="5"/>
+        <v>7.3428992490975908E-5</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3495487687728246E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="5"/>
+        <v>9.39932841238709E-3</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5974317723021149E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="5"/>
+        <v>9.2923984225862399E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="5"/>
+        <v>0.18334887215141191</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="5"/>
+        <v>0.29919481693416161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <f>A23*$B$10+A24*$B$11+A25*$B$12+$B$13*A26+$B$14*A27</f>
         <v>5.6729235990717383E-19</v>
       </c>
-      <c r="B25" s="1">
-        <f t="shared" ref="B25:J25" si="10">B19*$B$7+B20*$B$8+B21*$B$9+$B$10*B22+$B$11*B23</f>
+      <c r="B29" s="1">
+        <f>B23*$B$10+B24*$B$11+B25*$B$12+$B$13*B26+$B$14*B27</f>
         <v>9.2905151735172012E-11</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="10"/>
+      <c r="C29" s="1">
+        <f>C23*$B$10+C24*$B$11+C25*$B$12+$B$13*C26+$B$14*C27</f>
         <v>4.6860508823589257E-7</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="10"/>
+      <c r="D29" s="1">
+        <f>D23*$B$10+D24*$B$11+D25*$B$12+$B$13*D26+$B$14*D27</f>
         <v>0.10019645351304628</v>
       </c>
-      <c r="E25" s="1">
-        <f t="shared" si="10"/>
+      <c r="E29" s="1">
+        <f>E23*$B$10+E24*$B$11+E25*$B$12+$B$13*E26+$B$14*E27</f>
         <v>0.11347267906057283</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" si="10"/>
+      <c r="F29" s="1">
+        <f>F23*$B$10+F24*$B$11+F25*$B$12+$B$13*F26+$B$14*F27</f>
         <v>0.19577204403492243</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="10"/>
+      <c r="G29" s="1">
+        <f>G23*$B$10+G24*$B$11+G25*$B$12+$B$13*G26+$B$14*G27</f>
         <v>0.3096067695451723</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" si="10"/>
+      <c r="H29" s="1">
+        <f>H23*$B$10+H24*$B$11+H25*$B$12+$B$13*H26+$B$14*H27</f>
         <v>0.40059588473934798</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="10"/>
+      <c r="I29" s="1">
+        <f>I23*$B$10+I24*$B$11+I25*$B$12+$B$13*I26+$B$14*I27</f>
         <v>0.49027376059069538</v>
       </c>
-      <c r="J25" s="1">
-        <f>J19*$B$7+J20*$B$8+J21*$B$9+$B$10*J22+$B$11*J23</f>
+      <c r="J29" s="1">
+        <f>J23*$B$10+J24*$B$11+J25*$B$12+$B$13*J26+$B$14*J27</f>
         <v>0.58468152212693481</v>
       </c>
     </row>
